--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583249.611784171</v>
+        <v>2690479.05318226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8996340.821973087</v>
+        <v>9009789.267352728</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.95245435214181</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>135.7379086327656</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>51.96291002746943</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.69628905577548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>87.63333247362777</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>8.126713612536609</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>51.56887637424928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.67696412505136</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>353.9936148669141</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>206.3692611931943</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>2.354219580277684</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>270.116740968492</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>193.9313104494263</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.26519496153746</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>74.41917683133092</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>81.27859867330054</v>
       </c>
       <c r="H19" t="n">
-        <v>94.64226186542875</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>101.9154861872836</v>
+        <v>86.26216629270439</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.08121593769748</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>44.30292280757614</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>87.82057320600219</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.6328115793024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>139.7286184013004</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,22 +3000,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>203.245538844455</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>13.03790159951639</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>151.0446456820674</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.592641220497489</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>105.9893107373036</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22.6126310577748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>31.39650288673297</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>20.22544352992964</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3949,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>184.6141907640395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>46.15319674221004</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,61 +4306,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>885.1486825368356</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>885.1486825368356</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>499.3604299385914</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>492.4149291893879</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4372,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161679</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9787363064645</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064645</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941287</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1583.958332167963</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1360.979851362698</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1360.979851362698</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>1106.295363156811</v>
       </c>
       <c r="W4" t="n">
-        <v>732.3487252516923</v>
+        <v>816.8781931198506</v>
       </c>
       <c r="X4" t="n">
-        <v>732.3487252516923</v>
+        <v>588.8886422218333</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.9787363064645</v>
+        <v>368.0960630783031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591601078695</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>916.6290841382836</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>2554.13052677133</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2300.54946603551</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>1969.486578691939</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>1616.717923421825</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118629</v>
+        <v>1616.717923421825</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142817</v>
+        <v>1616.717923421825</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>672.9114618157963</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>503.9752788878894</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>854.559926646036</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>854.559926646036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.073083428566</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881545</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1539.565893582129</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.8122554685</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.672923492688</v>
+        <v>1897.83159218888</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.5472171493652</v>
+        <v>472.928063664427</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1643.400207096809</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1354.297340222452</v>
+        <v>943.9936985316274</v>
       </c>
       <c r="V10" t="n">
-        <v>1099.612852016566</v>
+        <v>943.9936985316274</v>
       </c>
       <c r="W10" t="n">
-        <v>810.195681979605</v>
+        <v>654.5765284946667</v>
       </c>
       <c r="X10" t="n">
-        <v>810.195681979605</v>
+        <v>654.5765284946667</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.195681979605</v>
+        <v>654.5765284946667</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5053,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,19 +5123,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>424.993875127789</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>278.1039276298786</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>278.1039276298786</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>136.3920964720767</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F19" t="n">
-        <v>189.4149073564858</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G19" t="n">
-        <v>189.4149073564858</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797162</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>2715.159942084666</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>3312.538429711218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>3940.136393265825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>4492.046123505112</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499465</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3964.218603191809</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W25" t="n">
-        <v>3674.801433154848</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X25" t="n">
-        <v>3446.811882256831</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>3226.019303113301</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6308,25 @@
         <v>2231.588527385791</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M27" t="n">
-        <v>3278.063798229818</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N27" t="n">
-        <v>3905.661761784424</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>4503.800315021996</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>4503.800315021996</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
         <v>4690.833152398593</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3023.484406741616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2358.255433877228</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2138.653968900169</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X28" t="n">
-        <v>3425.925450715386</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3205.132871571856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.841029837709</v>
+        <v>3168.568054801518</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>2999.631871873611</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>2849.515232461275</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>2849.515232461275</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2702.625284963365</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V31" t="n">
-        <v>1702.688794746457</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.271624709496</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.282073811479</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.4894946679487</v>
+        <v>3350.216519631757</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6679,25 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,22 +6715,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>3053.935450426146</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732377</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F34" t="n">
-        <v>189.0729639753273</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>189.0729639753273</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>3235.583915256386</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,22 +6943,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399322</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>3658.217393399322</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4210.127123638609</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4633.750273133677</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3112.537432147379</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>2943.601249219472</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2793.484609807137</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.22696873374</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4409.218975026371</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4120.143748370569</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3865.459260164682</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L42" t="n">
-        <v>2715.159942084666</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>3312.538429711218</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532803</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253734</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.091168225067</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.10161732705</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.30903818352</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7631,37 +7633,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>282.1478848544708</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>140.4360536966689</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.76488231024615</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.11615722870171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>31.77834493961083</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.15585306139378</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>144.1654765207639</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="H19" t="n">
-        <v>45.65245098079514</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>65.33133491134424</v>
+        <v>80.98465480592344</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.7507642442398</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>93.2057127956424</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.07684380973478</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>25.79551989096848</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>48.89210447937296</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>127.2568112467075</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>67.54000767002742</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.2393389614398</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>111.4161395899847</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>186.0089474405553</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>147.0213775686982</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>67.52345255978847</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.11263957635548</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794439.3219525022</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787309.0089512172</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787309.0089512172</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914272</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.34719808324</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87304.34719808327</v>
-      </c>
       <c r="E4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26433,7 +26435,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26442,10 +26444,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732037</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26454,7 +26456,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685174.1403862011</v>
+        <v>-685174.140386201</v>
       </c>
       <c r="C6" t="n">
-        <v>258156.3865198443</v>
+        <v>429577.6431897188</v>
       </c>
       <c r="D6" t="n">
-        <v>461595.12813195</v>
+        <v>429577.6431897186</v>
       </c>
       <c r="E6" t="n">
-        <v>211064.9756940105</v>
+        <v>28991.99587681996</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013659</v>
+        <v>536477.4375013661</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013659</v>
+        <v>536477.4375013658</v>
       </c>
       <c r="H6" t="n">
         <v>536477.4375013661</v>
       </c>
       <c r="I6" t="n">
+        <v>536477.4375013659</v>
+      </c>
+      <c r="J6" t="n">
+        <v>368872.2596913833</v>
+      </c>
+      <c r="K6" t="n">
+        <v>536477.4375013659</v>
+      </c>
+      <c r="L6" t="n">
         <v>536477.4375013663</v>
       </c>
-      <c r="J6" t="n">
-        <v>368872.2596913832</v>
-      </c>
-      <c r="K6" t="n">
-        <v>487367.3447953116</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>403870.1437724389</v>
+      </c>
+      <c r="N6" t="n">
         <v>536477.4375013659</v>
       </c>
-      <c r="M6" t="n">
-        <v>451422.4095658539</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>536477.437501366</v>
-      </c>
-      <c r="O6" t="n">
-        <v>536477.4375013661</v>
       </c>
       <c r="P6" t="n">
         <v>536477.4375013661</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346.7813873113388</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>275.8097941401884</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>142.699550334268</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.8883642963193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>267.0497091470552</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>198.5314713676972</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6779447243786</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.938508893161</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>27.93675520534771</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>163.3618394852747</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>217.1947296958915</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>16.11041315270865</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N21" t="n">
-        <v>746.4857620875799</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>334.769386094615</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33026,13 +33028,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>361.5531172119649</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33046,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642893</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>347.4623967873087</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33506,10 +33508,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>381.1895643063692</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N21" t="n">
-        <v>615.1440500042467</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802847</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>219.4190832899467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782678</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>208.9080170074345</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2690479.05318226</v>
+        <v>2686341.895932109</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>380.8440225949003</v>
       </c>
       <c r="G2" t="n">
-        <v>135.7379086327656</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>51.96291002746943</v>
+        <v>116.2379008321357</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>228.3619192228264</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>8.126713612536609</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>31.67696412505136</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>136.742239603469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426079</v>
       </c>
       <c r="E8" t="n">
-        <v>353.9936148669141</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>24.55276019063762</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>270.116740968492</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>42.14967908986381</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>40.57972681915321</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.41917683133092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>81.27859867330054</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>30.06830131405845</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>86.26216629270439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>25.52471385612641</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>87.82057320600219</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.7286184013004</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.0446456820674</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>105.9893107373036</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>31.39650288673297</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>20.22544352992964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2343752954204</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>46.15319674221004</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477247</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368356</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368356</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="E2" t="n">
-        <v>499.3604299385914</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="F2" t="n">
-        <v>492.4149291893879</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>918.0161179218665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.0960630783031</v>
+        <v>791.0311677684842</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1583.958332167963</v>
+        <v>1416.450692547519</v>
       </c>
       <c r="T4" t="n">
-        <v>1360.979851362698</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="U4" t="n">
-        <v>1360.979851362698</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="V4" t="n">
-        <v>1106.295363156811</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="W4" t="n">
-        <v>816.8781931198506</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="X4" t="n">
-        <v>588.8886422218333</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.0960630783031</v>
+        <v>972.679632598724</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230.118083357703</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>692.9012966331929</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>281.9153918435854</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2554.13052677133</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2300.54946603551</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1969.486578691939</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1616.717923421825</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1616.717923421825</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y5" t="n">
-        <v>1616.717923421825</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145199</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672.9114618157963</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>503.9752788878894</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282416</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.549477544053</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>854.559926646036</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y7" t="n">
-        <v>854.559926646036</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1897.83159218888</v>
+        <v>728.3028554854586</v>
       </c>
       <c r="C8" t="n">
-        <v>1897.83159218888</v>
+        <v>359.3403385450469</v>
       </c>
       <c r="D8" t="n">
-        <v>1539.565893582129</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281609</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.83159218888</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X8" t="n">
-        <v>1897.83159218888</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y8" t="n">
-        <v>1897.83159218888</v>
+        <v>1114.90269554958</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,37 +4871,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.928063664427</v>
+        <v>689.9034178578802</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9918807365201</v>
+        <v>520.9672349299733</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365201</v>
+        <v>370.8505955176375</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>222.9375019352444</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>943.9936985316274</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>943.9936985316274</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>654.5765284946667</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>654.5765284946667</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.5765284946667</v>
+        <v>871.5518826881199</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101821</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>424.993875127789</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>278.1039276298786</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>278.1039276298786</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>136.3920964720767</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2405.973460530611</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179085</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4311299055728</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5180363231797</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6280888252693</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2416.591062050909</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797162</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1643.635426776346</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1354.218256739386</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2358.255433877228</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2138.653968900169</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1849.578742244367</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3168.568054801518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2999.631871873611</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2849.515232461275</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2849.515232461275</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2702.625284963365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3571.009098775287</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3350.216519631757</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3053.935450426146</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2884.99926749824</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2734.882628085904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3235.583915256386</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2272.857469997003</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4409.218975026371</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4120.143748370569</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3865.459260164682</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3576.042090127722</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395908</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>449.3439841395908</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>282.1478848544708</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4360536966689</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.115261047703417e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.11615722870171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>140.4465591824914</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.1654765207639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>36.30694539606321</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.98465480592344</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>55.74112246243911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>93.2057127956424</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>25.79551989096848</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.54000767002742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>111.4161395899847</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>186.0089474405553</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>147.0213775686982</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>61.3502780566744</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>35.11263957635548</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525022</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914272</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520052</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731975</v>
@@ -26432,13 +26432,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685174.140386201</v>
+        <v>-685174.1403862012</v>
       </c>
       <c r="C6" t="n">
         <v>429577.6431897188</v>
@@ -26530,40 +26530,40 @@
         <v>429577.6431897186</v>
       </c>
       <c r="E6" t="n">
-        <v>28991.99587681996</v>
+        <v>28644.61662246336</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013661</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013658</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.4375013661</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470088</v>
       </c>
       <c r="J6" t="n">
-        <v>368872.2596913833</v>
+        <v>368524.8804370265</v>
       </c>
       <c r="K6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="L6" t="n">
-        <v>536477.4375013663</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="M6" t="n">
-        <v>403870.1437724389</v>
+        <v>403522.7645180824</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470091</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470092</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013661</v>
+        <v>536130.0582470093</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>26.03202314681118</v>
       </c>
       <c r="G2" t="n">
-        <v>275.8097941401884</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>142.699550334268</v>
+        <v>78.42455952960181</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>183.1857835501276</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>198.5314713676972</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>116.938508893161</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>88.96741578556811</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807504</v>
       </c>
       <c r="E8" t="n">
-        <v>27.93675520534771</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.24383501326292</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>16.11041315270865</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.468268590953371e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>624.1318526922785</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>291.8940795642893</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>347.4623967873087</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676414</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065826</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>481.5356082478341</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>151.9123054782678</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>208.9080170074345</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>134.2025531565909</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2686341.895932109</v>
+        <v>2688102.426234894</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>380.8440225949003</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>39.67788952565739</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>116.2379008321357</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>43.30112502764913</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>228.3619192228264</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>38.67430626749167</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>136.742239603469</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.30660220273166</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426079</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>264.3750251656581</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.55276019063762</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>186.7047617036392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>40.57972681915321</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.06830131405845</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52471385612641</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>43.34824157860987</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>248.6571042139335</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.2343752954204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>507.0302131322571</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>91.32546285654593</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>91.32546285654593</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.25053145306</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182946</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218665</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429764</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744482</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330614</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.0311677684842</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>622.0949848405774</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>471.9783454282416</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1416.450692547519</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.472211742254</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>1193.472211742254</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1193.472211742254</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>1193.472211742254</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>1193.472211742254</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>972.679632598724</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.689549231437</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.689549231437</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>1078.689549231437</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>692.9012966331929</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>281.9153918435854</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.428721271371</v>
+        <v>2025.109406839797</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="6">
@@ -4628,13 +4628,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4646,28 +4646,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143497</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458215</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>665.1026499885492</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.1026499885492</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854586</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450469</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251367</v>
+        <v>1115.066423921166</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>729.2781713229219</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>318.2922665333144</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281609</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786472</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525392</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.90269554958</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9034178578802</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299733</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176375</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733407</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>76.04755443733407</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>76.04755443733407</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.761631868611</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881199</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2405.973460530611</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2186.371995553553</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1897.296768897751</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1642.612280691864</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2416.591062050909</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2233.736227705813</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2233.736227705813</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1944.661001050011</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1689.976512844124</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1400.559342807163</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.569791909146</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.7772127656159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5776,28 +5776,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768879</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944948</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,16 +7256,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,34 +7402,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.8692823226939</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947871</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y43" t="n">
-        <v>824.5177471529337</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241565</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.940996767551754e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.115261047703417e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>140.4465591824914</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>36.30694539606321</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>55.74112246243911</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>208.7894017452181</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>24.81829093850928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>37.52737017531066</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.3502780566744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794439.3219525022</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914271</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914272</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914272</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-685174.1403862012</v>
       </c>
       <c r="C6" t="n">
-        <v>429577.6431897188</v>
+        <v>429577.6431897185</v>
       </c>
       <c r="D6" t="n">
         <v>429577.6431897186</v>
       </c>
       <c r="E6" t="n">
-        <v>28644.61662246336</v>
+        <v>28957.25795138421</v>
       </c>
       <c r="F6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="G6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="H6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="I6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="J6" t="n">
-        <v>368524.8804370265</v>
+        <v>368837.5217659477</v>
       </c>
       <c r="K6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="L6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="M6" t="n">
-        <v>403522.7645180824</v>
+        <v>403835.4058470035</v>
       </c>
       <c r="N6" t="n">
-        <v>536130.0582470091</v>
+        <v>536442.6995759306</v>
       </c>
       <c r="O6" t="n">
-        <v>536130.0582470092</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="P6" t="n">
-        <v>536130.0582470093</v>
+        <v>536442.6995759305</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241346</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>26.03202314681118</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.0320231468131</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>78.42455952960181</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>177.4475709695628</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>183.1857835501276</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>167.9838787127421</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>88.96741578556811</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2780511493631</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807504</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>147.1726776072959</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>80.24383501326292</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.43288162018879</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.468268590953371e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>467.1465236515247</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32955,7 +32955,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676414</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>328.5921438716505</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36603,7 +36603,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
